--- a/goo.xlsx
+++ b/goo.xlsx
@@ -413,14 +413,827 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Элизабетта Ньоне</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>W.I.T.C.H. Часть 3. Кризис двух миров. Том 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>1 302 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Тацуки Фудзимото</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Человек-бензопила 7. Книга 12. Птица и война</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>644 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Сергей Лукьяненко</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Прыжок</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>775 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Лия Арден</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Пятый Дракон</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>690 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Стивен Грэм Джонс</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Полукровки</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>684 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Фез Инкрайт</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Карты Таро "Серп и семя. Оракул" (55 карт и руководство в подарочном футляре)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2 022 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Юлия Мигез Камин</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Интенсивный курс португальского языка для начинающих</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>492 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ан Чинмён, Сон Ынхи</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Грамматика корейского языка для продвинутых</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1 752 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Лиза Рене Джонс</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Поэзия зла</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>690 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Пётр Земсков</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Математика и магия</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>408 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Эван Уинтер</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Огни возмездия</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>834 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>М. Бастер</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Типа панки. Опыты индивидуализма и неподчинения в СССР</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1 752 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Марина Руденко</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Сам себе ветеринар. Как оказать первую помощь собаке и не пропустить симптомы болезни</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>660 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Флоранс Ассулин, Даниэль Загури</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Мозг серийного убийцы. Реальные истории судебного психиатра</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>600 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Кристофер де Амель</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Манускрипты, изменившие мир: самые удивительные рукописи Средневековья</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2 202 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ева Аус</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Таро Адама (79 карт и руководство для гадания)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1 572 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Крейг Джонсон</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Холодное блюдо</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>702 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Дарья Оскин</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Художники, изменившие историю</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1 050 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Иван Забавников</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PRO выпечку и хлеб</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1 330 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Эрван Лафлериэль</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fallout. Хроники создания легендарной саги</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>744 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Лина Филимонова</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Любовь по залету</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>210 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Люсинда Райли</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Семь сестер. Потерянная сестра</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1 497 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Тесса Бейли</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Что случилось этим летом</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>497 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Максим Кабир</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Машинист паровоза-призрака</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>364 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ханья Янагихара</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>До самого рая</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1 270 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Лора Кейли</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Колокол</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>642 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Гэгэ Акутами</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Магическая битва. Книга 5. Таланты умирают молодыми. В преддверии праздника</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>842 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Тунсю Мосян</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Благословение небожителей. Том 3</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1 250 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Джеймс Дэшнер</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Разрезающий лабиринт</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>450 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Тацуки Фудзимото</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Человек-бензопила. Книга 5. Купание в ванне. Чувства собаки</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>960 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Дзюн Мотидзуки</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Сердца Пандоры 10. Книги 19-20</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>960 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Анастасия Гор</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Рубиновый лес</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>711 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Говард Филлипс Лавкрафт</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Ужас Данвича</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1 287 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Квон Гёыль, Суволь</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Единственный конец злодейки — смерть. Том 1</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1 006 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Елена Кондрацкая</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Сон в тысячу лет</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>690 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Эли Хейзелвуд</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Гипотеза любви</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>673 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Антонина Крейн</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Улыбнись мне, Артур Эдинброг</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>690 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Квон Гёыль, Суволь</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Единственный конец злодейки — смерть. Том 2</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1 006 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Колин Гувер</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Все закончится на нас</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>497 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Тацуки Фудзимото</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Человек-бензопила. Книга 6. Вперед, Человек-бензопила!</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>644 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Майк Омер</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Гибельное влияние</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>690 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Гэгэ Акутами</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Магическая битва 4. Начало повиновения. Пагубный талант</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>842 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Тунсю Мосян</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Основатель Тёмного Пути. Маньхуа. Том 1</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1 250 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Фундаментальные законы человеческой глупости</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>492 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Райчел Мид</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Академия вампиров. Подарочный комплект: Последняя жертва. Оковы для призрака. Кровавые обещания. Поцелуй тьмы. Ледяной укус. Охотники и жертвы (комплект из 6 книг в футляре)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>3 102 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Тянься Гуйюань</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Восхождение фениксов</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>829 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Тунсю Мосян</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Основатель Тёмного Пути. Маньхуа. Том 4</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1 050 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Захар Прилепин</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Шолохов. Незаконный</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1 060 ₽</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>